--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -236,7 +236,7 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - FT - CAP.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2019/Gaps Guide 2018.xlsx</t>
+    <t xml:space="preserve">KPIs_2019/Gaps Guide 2019.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/Spirits 2018 - FT.xlsx</t>
@@ -629,10 +629,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,10 +787,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,10 +939,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,16 +1086,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,7 +1134,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,11 +1213,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,7 +1256,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,11 +1335,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1378,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,11 +1457,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1500,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,11 +1579,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,7 +1622,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,11 +1725,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,7 +1768,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,11 +1871,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,7 +1914,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,11 +2023,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,7 +2066,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,10 +2175,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,11 +2333,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,7 +2376,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,11 +2485,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,7 +2528,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,10 +2637,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,7 +2680,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,10 +2783,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,7 +2826,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,10 +2929,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,7 +2972,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,10 +3075,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +3118,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,10 +3227,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,7 +3270,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,10 +3379,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,7 +3422,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,10 +3531,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,7 +3574,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,10 +3683,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,7 +3726,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,10 +3835,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,10 +3993,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,7 +4036,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,10 +4145,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,7 +4188,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,15 +4292,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4324,7 +4340,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,10 +4449,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,10 +4607,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,10 +4765,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,10 +4923,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,10 +5081,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5218,10 +5239,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="123">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -299,6 +299,9 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
   </si>
   <si>
@@ -311,16 +314,25 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern REG</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - CAP</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS2019 ICHoReCa RestCafeTe CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - REG</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS2019 ICHoReCa RestCafeTe REG</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - IC Petroleum - CAP</t>
@@ -447,7 +459,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +494,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -519,7 +537,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,6 +559,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,7 +598,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FF99FFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6666"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
@@ -629,11 +651,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,11 +809,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,11 +961,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,17 +1107,16 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,11 +1234,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,11 +1355,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,11 +1476,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,11 +1597,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,11 +1742,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,16 +1882,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,8 +1928,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
+      <c r="D3" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,7 +1956,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,7 +1970,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1984,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,16 +2033,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,10 +2063,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,8 +2079,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
+      <c r="D3" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2107,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,7 +2121,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,7 +2135,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,11 +2189,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,16 +2342,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,10 +2372,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,8 +2388,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
+      <c r="D3" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,7 +2416,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,7 +2430,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,7 +2444,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,17 +2492,16 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,8 +2539,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>88</v>
+      <c r="D3" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,7 +2567,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,7 +2581,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,7 +2595,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,11 +2649,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,10 +2675,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,7 +2692,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,7 +2727,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,7 +2741,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,11 +2795,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,10 +2821,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,7 +2838,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,7 +2873,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,7 +2887,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,11 +2941,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,10 +2967,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,7 +2984,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,7 +3019,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,7 +3033,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,11 +3087,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,10 +3113,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,7 +3130,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,7 +3157,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,7 +3171,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,7 +3185,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,11 +3239,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,10 +3265,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,7 +3282,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,7 +3309,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,7 +3323,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,7 +3337,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,11 +3391,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,10 +3417,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,7 +3434,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,7 +3461,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,7 +3475,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,7 +3489,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,11 +3543,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,10 +3569,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3586,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,7 +3613,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,7 +3627,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,7 +3641,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,11 +3695,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,10 +3721,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3738,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3765,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,7 +3779,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,7 +3793,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,11 +3847,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,11 +4005,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,10 +4031,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,7 +4048,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,7 +4075,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,7 +4089,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,7 +4103,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,11 +4157,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,10 +4183,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,7 +4200,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,7 +4227,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,7 +4241,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +4255,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,11 +4309,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4323,10 +4335,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4340,7 +4352,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,7 +4379,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,7 +4393,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,7 +4407,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,11 +4461,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,11 +4619,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,11 +4777,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,11 +4935,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,11 +5093,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5239,11 +5251,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="20"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="139">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -242,6 +242,18 @@
     <t xml:space="preserve">KPIs_2019/Spirits 2018 - FT.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">BENCHMARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benchmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/Benchmark 2019.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - FT - REG</t>
   </si>
   <si>
@@ -254,12 +266,18 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - FT NS - CAP.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">FT NS CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - FT NS - REG</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - FT NS - REG.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">FT NS REG</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC Canteen - EDU</t>
   </si>
   <si>
@@ -287,12 +305,18 @@
     <t xml:space="preserve">KPIs_2019/KPIConversion2019.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Canteen EDU</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC Canteen - OTH</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Canteen OTH</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - CAP</t>
   </si>
   <si>
@@ -308,6 +332,9 @@
     <t xml:space="preserve">IC - HoReCa All</t>
   </si>
   <si>
+    <t xml:space="preserve">HoReCa</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - REG</t>
   </si>
   <si>
@@ -344,6 +371,9 @@
     <t xml:space="preserve">IC - Petroleum</t>
   </si>
   <si>
+    <t xml:space="preserve">Petrol</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC Petroleum - REG</t>
   </si>
   <si>
@@ -359,6 +389,9 @@
     <t xml:space="preserve">IC - QSR</t>
   </si>
   <si>
+    <t xml:space="preserve">QSR</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Big - CAP</t>
   </si>
   <si>
@@ -371,12 +404,18 @@
     <t xml:space="preserve">MT - Conv All</t>
   </si>
   <si>
+    <t xml:space="preserve">Conv Big CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Big - REG</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Conv Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Small - CAP</t>
   </si>
   <si>
@@ -401,6 +440,9 @@
     <t xml:space="preserve">MT - Hyper-Super</t>
   </si>
   <si>
+    <t xml:space="preserve">Hyper</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Hypermarket - REG</t>
   </si>
   <si>
@@ -416,10 +458,16 @@
     <t xml:space="preserve">KPIs_2019/Spirits 2018 - MT - Supermarket.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Super CAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - MT Supermarket - REG</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super REG</t>
   </si>
 </sst>
 </file>
@@ -459,7 +507,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +542,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -537,7 +597,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,6 +623,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,11 +719,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,11 +876,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,11 +1027,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,18 +1170,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,6 +1274,20 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1306,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
@@ -1234,10 +1314,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,7 +1357,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,6 +1410,20 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1347,18 +1442,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,7 +1493,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,6 +1546,20 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1468,18 +1578,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,7 +1629,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,6 +1682,20 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1589,18 +1714,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,7 +1765,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,13 +1794,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,13 +1808,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,7 +1841,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1734,18 +1874,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,10 +1908,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,7 +1925,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,10 +1933,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,13 +1954,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,13 +1968,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,7 +2001,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1879,18 +2034,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,10 +2068,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,8 +2084,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>82</v>
+      <c r="D3" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,10 +2093,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,7 +2112,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,13 +2120,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,13 +2134,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,7 +2167,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2200,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
@@ -2038,10 +2208,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,10 +2234,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,8 +2250,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>87</v>
+      <c r="D3" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,10 +2259,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,7 +2278,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,13 +2286,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,13 +2300,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,7 +2333,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2189,11 +2374,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,7 +2523,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
@@ -2347,10 +2531,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,10 +2557,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,8 +2573,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>90</v>
+      <c r="D3" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,10 +2582,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,7 +2601,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,13 +2609,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,13 +2623,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,7 +2656,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2490,18 +2689,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,10 +2723,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,8 +2739,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>93</v>
+      <c r="D3" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,10 +2748,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,7 +2767,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,13 +2775,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,13 +2789,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,7 +2822,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2641,19 +2855,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,10 +2888,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,7 +2905,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,10 +2913,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,13 +2934,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,13 +2948,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,7 +2981,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2787,7 +3014,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
@@ -2795,11 +3022,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,10 +3047,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +3064,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,10 +3072,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,13 +3093,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,13 +3107,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,7 +3140,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2933,19 +3173,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,10 +3206,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,7 +3223,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,10 +3231,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,13 +3252,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,13 +3266,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,7 +3299,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3079,19 +3332,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,10 +3365,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,7 +3382,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,10 +3390,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +3409,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,13 +3417,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,13 +3431,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,7 +3464,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3231,19 +3497,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,10 +3530,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,7 +3547,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,10 +3555,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,7 +3574,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,13 +3582,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,13 +3596,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,7 +3629,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +3662,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
@@ -3391,11 +3670,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,10 +3695,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,7 +3712,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,10 +3720,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,7 +3739,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,13 +3747,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,13 +3761,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,7 +3794,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3827,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
@@ -3543,11 +3835,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,10 +3860,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,7 +3877,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,10 +3885,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3613,7 +3904,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,13 +3912,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,13 +3926,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,7 +3959,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3687,19 +3992,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,10 +4025,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,7 +4042,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,10 +4050,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,7 +4069,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,13 +4077,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,13 +4091,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,7 +4124,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3847,11 +4165,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,7 +4314,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
@@ -4005,11 +4322,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,10 +4347,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,7 +4364,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,10 +4372,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4075,7 +4391,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,13 +4399,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4097,13 +4413,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,7 +4446,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4149,19 +4479,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,10 +4512,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,7 +4529,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,10 +4537,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,7 +4556,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,13 +4564,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,13 +4578,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,7 +4611,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4301,19 +4644,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,10 +4677,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,7 +4694,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,10 +4702,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,7 +4721,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,13 +4729,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,13 +4743,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,7 +4776,21 @@
         <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4461,11 +4817,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,11 +4974,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,11 +5131,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,11 +5288,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,11 +5445,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,11 +5602,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">BENCHMARK</t>
   </si>
   <si>
-    <t xml:space="preserve">Benchmark</t>
+    <t xml:space="preserve">Benchmark 2019</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/Benchmark 2019.xlsx</t>
@@ -719,10 +719,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,10 +877,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,10 +1029,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,17 +1175,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U35" activeCellId="0" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,11 +1317,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,11 +1453,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,17 +1583,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,11 +1725,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,11 +1885,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,11 +2045,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,11 +2211,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,10 +2377,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,11 +2535,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,11 +2701,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,10 +2867,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,10 +3027,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,10 +3187,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,10 +3347,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,10 +3513,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,10 +3679,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,10 +3845,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,10 +4011,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,10 +4177,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,10 +4335,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,10 +4501,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,10 +4667,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,10 +4833,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,10 +4991,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,10 +5149,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,10 +5307,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,10 +5465,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5602,10 +5623,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -1,47 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{7779048B-D524-4A14-A506-29E74AF04523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="11" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
-    <sheet name="Pos 2018 - MT - Hypermarket" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Pos 2018 - MT - Supermarket" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="6" state="hidden" r:id="rId7"/>
-    <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="7" state="hidden" r:id="rId8"/>
-    <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="8" state="hidden" r:id="rId9"/>
-    <sheet name="Pos 2018 - Canteen" sheetId="9" state="hidden" r:id="rId10"/>
-    <sheet name="Pos 2018 - Petroleum" sheetId="10" state="hidden" r:id="rId11"/>
-    <sheet name="Pos 2018 - QSR" sheetId="11" state="hidden" r:id="rId12"/>
-    <sheet name="PoS 2019 - FT - CAP" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="PoS 2019 - FT - REG" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="PoS 2019 - FT NS - CAP" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="PoS 2019 - FT NS - REG" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="PoS 2019 - IC Canteen - EDU" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="PoS 2019 - IC Canteen - OTH" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - CAP" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - REG" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - CAP" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - REG" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="PoS 2019 - IC QSR" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="PoS 2019 - MT Conv Big - REG" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="PoS 2019 - MT Conv Small - CAP" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="PoS 2019 - MT Hypermarket - CAP" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="PoS 2019 - MT Hypermarket - REG" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Pos 2018 - MT - Hypermarket" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Pos 2018 - MT - Supermarket" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Pos 2018 - MT - Convenience Sma" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Pos 2018 - HoReCa - Bar Tavern " sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Pos 2018 - HoReCa - Coffee Tea " sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Pos 2018 - HoReCa - Restaurant " sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Pos 2018 - Canteen" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="Pos 2018 - Petroleum" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="Pos 2018 - QSR" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="PoS 2019 - FT - CAP" sheetId="12" r:id="rId12"/>
+    <sheet name="PoS 2019 - FT - REG" sheetId="13" r:id="rId13"/>
+    <sheet name="PoS 2019 - FT NS - CAP" sheetId="14" r:id="rId14"/>
+    <sheet name="PoS 2019 - FT NS - REG" sheetId="15" r:id="rId15"/>
+    <sheet name="PoS 2019 - IC Canteen - EDU" sheetId="16" r:id="rId16"/>
+    <sheet name="PoS 2019 - IC Canteen - OTH" sheetId="17" r:id="rId17"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernC" sheetId="18" r:id="rId18"/>
+    <sheet name="Recovered_Sheet1" sheetId="19" r:id="rId19"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTe" sheetId="20" r:id="rId20"/>
+    <sheet name="Recovered_Sheet2" sheetId="21" r:id="rId21"/>
+    <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="22" r:id="rId22"/>
+    <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="23" r:id="rId23"/>
+    <sheet name="PoS 2019 - IC QSR" sheetId="24" r:id="rId24"/>
+    <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="25" r:id="rId25"/>
+    <sheet name="PoS 2019 - MT Conv Big - REG" sheetId="26" r:id="rId26"/>
+    <sheet name="PoS 2019 - MT Conv Small - CAP" sheetId="27" r:id="rId27"/>
+    <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="28" r:id="rId28"/>
+    <sheet name="PoS 2019 - MT Hypermarket - CAP" sheetId="29" r:id="rId29"/>
+    <sheet name="PoS 2019 - MT Hypermarket - REG" sheetId="30" r:id="rId30"/>
+    <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="31" r:id="rId31"/>
+    <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="32" r:id="rId32"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -53,431 +59,428 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="139">
   <si>
-    <t xml:space="preserve">SOURCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/FT PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top Gaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/gaps_guide_2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TARGET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target Execution 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Target Execution 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARKETING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marketing 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Marketing.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPIRITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/FT Spirits 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract Execution 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Contract Execution 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQUIPMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment Execution 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEGRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPSKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI_CONVERSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Conversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/KPIConversion2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - MT - Hypermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Hypermarket PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - MT - Hypermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Hypermarket Spirits 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - MT - Supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Supermarket PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - MT - Supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Supermarket Spirits 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - MT - Convenience Big</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Convenience Big PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - MT - Convenience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Convenience Spirits 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - MT - Convenience Small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Convenience Small PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - HoReCa - Bar Tavern Night Clubs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits 2018 - HoReCa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/HoReCa Spirits 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - HoReCa - Coffee Tea Shops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/HoReCa Cofee_Tea Shops PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - HoReCa - Restaurant Cafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/HoReCa Restaurant_Cafe PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - Canteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Canteen PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - Petroleum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/Petroleum PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos 2018 - QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2018/QSR PoS 2018.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - FT - CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - FT - CAP.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/Gaps Guide 2019.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/Spirits 2018 - FT.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCHMARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/Benchmark 2019.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - FT - REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - FT - REG.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - FT NS - CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - FT NS - CAP.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT NS CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - FT NS - REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - FT NS - REG.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT NS REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC Canteen - EDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target Execution 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/Target Execution 2019.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract Execution 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/Contract Execution 2019.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC - Canteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment Execution 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/KPIConversion2019.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canteen EDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC Canteen - OTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canteen OTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC - HoReCa All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoReCa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - CAP.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS2019 ICHoReCa RestCafeTe CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - REG.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS2019 ICHoReCa RestCafeTe REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC Petroleum - CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC - Petroleum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC Petroleum - REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC QSR.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC - QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - MT Conv Big - CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/Spirits 2018 - MT - Convenience.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT - Conv All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conv Big CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - MT Conv Big - REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conv Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - MT Conv Small - CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - MT Conv Small - REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - MT Hypermarket - CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/Spirits 2018 - MT - Hypermarket.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT - Hyper-Super</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - MT Hypermarket - REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - MT Supermarket - CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/Spirits 2018 - MT - Supermarket.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - MT Supermarket - REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super REG</t>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>SHEET</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Pos 2018 - FT</t>
+  </si>
+  <si>
+    <t>KPIs_2018/FT PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>GAPS</t>
+  </si>
+  <si>
+    <t>Top Gaps</t>
+  </si>
+  <si>
+    <t>KPIs_2018/gaps_guide_2018.xlsx</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>Target Execution 2018</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Target Execution 2018.xlsx</t>
+  </si>
+  <si>
+    <t>MARKETING</t>
+  </si>
+  <si>
+    <t>Marketing 2017</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Marketing.xlsx</t>
+  </si>
+  <si>
+    <t>SPIRITS</t>
+  </si>
+  <si>
+    <t>Spirits 2018 - FT</t>
+  </si>
+  <si>
+    <t>KPIs_2018/FT Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t>CONTRACT</t>
+  </si>
+  <si>
+    <t>Contract Execution 2018</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Contract Execution 2018.xlsx</t>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>Equipment Execution 2018</t>
+  </si>
+  <si>
+    <t>INTEGRATION</t>
+  </si>
+  <si>
+    <t>CCH Integration</t>
+  </si>
+  <si>
+    <t>TOPSKU</t>
+  </si>
+  <si>
+    <t>Top SKU</t>
+  </si>
+  <si>
+    <t>KPI_CONVERSION</t>
+  </si>
+  <si>
+    <t>KPI Conversion</t>
+  </si>
+  <si>
+    <t>KPIs_2018/KPIConversion2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - MT - Hypermarket</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Hypermarket PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Spirits 2018 - MT - Hypermarket</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Hypermarket Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - MT - Supermarket</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Supermarket PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Spirits 2018 - MT - Supermarket</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Supermarket Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - MT - Convenience Big</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Convenience Big PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Spirits 2018 - MT - Convenience</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Convenience Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - MT - Convenience Small</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Convenience Small PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - HoReCa - Bar Tavern Night Clubs</t>
+  </si>
+  <si>
+    <t>KPIs_2018/HoReCa Bar Tavern_Night Club PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Spirits 2018 - HoReCa</t>
+  </si>
+  <si>
+    <t>KPIs_2018/HoReCa Spirits 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - HoReCa - Coffee Tea Shops</t>
+  </si>
+  <si>
+    <t>KPIs_2018/HoReCa Cofee_Tea Shops PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - HoReCa - Restaurant Cafe</t>
+  </si>
+  <si>
+    <t>KPIs_2018/HoReCa Restaurant_Cafe PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - Canteen</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Canteen PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - Petroleum</t>
+  </si>
+  <si>
+    <t>KPIs_2018/Petroleum PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>Pos 2018 - QSR</t>
+  </si>
+  <si>
+    <t>KPIs_2018/QSR PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t>PoS 2019 - FT - CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - FT - CAP.xlsx</t>
+  </si>
+  <si>
+    <t>KPIs_2019/Gaps Guide 2019.xlsx</t>
+  </si>
+  <si>
+    <t>KPIs_2019/Spirits 2018 - FT.xlsx</t>
+  </si>
+  <si>
+    <t>BENCHMARK</t>
+  </si>
+  <si>
+    <t>Benchmark 2019</t>
+  </si>
+  <si>
+    <t>KPIs_2019/Benchmark 2019.xlsx</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>PoS 2019 - FT - REG</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - FT - REG.xlsx</t>
+  </si>
+  <si>
+    <t>PoS 2019 - FT NS - CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - FT NS - CAP.xlsx</t>
+  </si>
+  <si>
+    <t>FT NS CAP</t>
+  </si>
+  <si>
+    <t>PoS 2019 - FT NS - REG</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - FT NS - REG.xlsx</t>
+  </si>
+  <si>
+    <t>FT NS REG</t>
+  </si>
+  <si>
+    <t>PoS 2019 - IC Canteen - EDU</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - IC Canteen - EDU.xlsx</t>
+  </si>
+  <si>
+    <t>Target Execution 2019</t>
+  </si>
+  <si>
+    <t>KPIs_2019/Target Execution 2019.xlsx</t>
+  </si>
+  <si>
+    <t>Contract Execution 2019</t>
+  </si>
+  <si>
+    <t>KPIs_2019/Contract Execution 2019.xlsx</t>
+  </si>
+  <si>
+    <t>IC - Canteen</t>
+  </si>
+  <si>
+    <t>Equipment Execution 2019</t>
+  </si>
+  <si>
+    <t>KPIs_2019/KPIConversion2019.xlsx</t>
+  </si>
+  <si>
+    <t>Canteen EDU</t>
+  </si>
+  <si>
+    <t>PoS 2019 - IC Canteen - OTH</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - IC Canteen - OTH.xlsx</t>
+  </si>
+  <si>
+    <t>Canteen OTH</t>
+  </si>
+  <si>
+    <t>PoS 2019 - IC HoReCa BarTavernClub - CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx</t>
+  </si>
+  <si>
+    <t>PoS 2019 ICHoReCa BarTavern CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
+  </si>
+  <si>
+    <t>IC - HoReCa All</t>
+  </si>
+  <si>
+    <t>HoReCa</t>
+  </si>
+  <si>
+    <t>PoS 2019 - IC HoReCa BarTavernClub - REG</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - REG.xlsx</t>
+  </si>
+  <si>
+    <t>PoS 2019 ICHoReCa BarTavern REG</t>
+  </si>
+  <si>
+    <t>PoS 2019 - IC HoReCa RestCafeTea - CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - CAP.xlsx</t>
+  </si>
+  <si>
+    <t>PoS2019 ICHoReCa RestCafeTe CAP</t>
+  </si>
+  <si>
+    <t>PoS 2019 - IC HoReCa RestCafeTea - REG</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea - REG.xlsx</t>
+  </si>
+  <si>
+    <t>PoS2019 ICHoReCa RestCafeTe REG</t>
+  </si>
+  <si>
+    <t>PoS 2019 - IC Petroleum - CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx</t>
+  </si>
+  <si>
+    <t>IC - Petroleum</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>PoS 2019 - IC Petroleum - REG</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx</t>
+  </si>
+  <si>
+    <t>PoS 2019 - IC QSR</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - IC QSR.xlsx</t>
+  </si>
+  <si>
+    <t>IC - QSR</t>
+  </si>
+  <si>
+    <t>QSR</t>
+  </si>
+  <si>
+    <t>PoS 2019 - MT Conv Big - CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx</t>
+  </si>
+  <si>
+    <t>KPIs_2019/Spirits 2018 - MT - Convenience.xlsx</t>
+  </si>
+  <si>
+    <t>MT - Conv All</t>
+  </si>
+  <si>
+    <t>Conv Big CAP</t>
+  </si>
+  <si>
+    <t>PoS 2019 - MT Conv Big - REG</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - MT Conv Big - REG.xlsx</t>
+  </si>
+  <si>
+    <t>Conv Other</t>
+  </si>
+  <si>
+    <t>PoS 2019 - MT Conv Small - CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx</t>
+  </si>
+  <si>
+    <t>PoS 2019 - MT Conv Small - REG</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - MT Conv Small - REG.xlsx</t>
+  </si>
+  <si>
+    <t>PoS 2019 - MT Hypermarket - CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - MT Hypermarket - CAP.xlsx</t>
+  </si>
+  <si>
+    <t>KPIs_2019/Spirits 2018 - MT - Hypermarket.xlsx</t>
+  </si>
+  <si>
+    <t>MT - Hyper-Super</t>
+  </si>
+  <si>
+    <t>Hyper</t>
+  </si>
+  <si>
+    <t>PoS 2019 - MT Hypermarket - REG</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - MT Hypermarket - REG.xlsx</t>
+  </si>
+  <si>
+    <t>PoS 2019 - MT Supermarket - CAP</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - MT Supermarket - CAP.xlsx</t>
+  </si>
+  <si>
+    <t>KPIs_2019/Spirits 2018 - MT - Supermarket.xlsx</t>
+  </si>
+  <si>
+    <t>Super CAP</t>
+  </si>
+  <si>
+    <t>PoS 2019 - MT Supermarket - REG</t>
+  </si>
+  <si>
+    <t>KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx</t>
+  </si>
+  <si>
+    <t>Super REG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -485,22 +488,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -564,7 +552,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -572,77 +560,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -701,32 +637,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="20"/>
+    <col min="3" max="3" width="34"/>
+    <col min="4" max="4" width="12.5703125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,8 +982,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -751,44 +993,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -798,66 +1040,65 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -865,26 +1106,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="44.28515625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,8 +1136,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -909,107 +1147,106 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1017,26 +1254,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="44.28515625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,8 +1284,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1061,107 +1295,106 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1169,26 +1402,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U35" activeCellId="0" sqref="U35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="20.7109375"/>
+    <col min="3" max="3" width="30.85546875"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,8 +1432,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1213,32 +1443,32 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1248,42 +1478,42 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1294,10 +1524,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1305,26 +1534,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="20.7109375"/>
+    <col min="3" max="3" width="30.85546875"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,8 +1564,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1349,32 +1575,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1384,42 +1610,42 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1430,10 +1656,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1441,26 +1666,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="20.7109375"/>
+    <col min="3" max="3" width="30.85546875"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1474,8 +1696,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1485,32 +1707,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1520,42 +1742,42 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1566,10 +1788,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1577,26 +1798,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="20.7109375"/>
+    <col min="3" max="3" width="30.85546875"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1610,8 +1828,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1621,32 +1839,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1656,42 +1874,42 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1702,10 +1920,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1713,26 +1930,23 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="22.7109375"/>
+    <col min="3" max="3" width="38.7109375"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,8 +1960,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1757,101 +1971,101 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1862,10 +2076,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1873,26 +2086,23 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="22.7109375"/>
+    <col min="3" max="3" width="38.7109375"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,8 +2116,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1917,101 +2127,101 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2022,10 +2232,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2033,26 +2242,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="33.85546875"/>
+    <col min="3" max="3" width="46"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2066,8 +2272,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2077,38 +2283,38 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2118,66 +2324,66 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2188,10 +2394,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2199,26 +2404,23 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="33.85546875"/>
+    <col min="3" max="3" width="46"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2232,8 +2434,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2243,38 +2445,38 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2284,66 +2486,66 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2354,10 +2556,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2365,26 +2566,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="27.5703125"/>
+    <col min="3" max="3" width="34"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2398,8 +2596,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2409,44 +2607,44 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2456,66 +2654,65 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2523,26 +2720,23 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="33.85546875"/>
+    <col min="3" max="3" width="46"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2556,8 +2750,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2567,38 +2761,38 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2608,66 +2802,66 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2678,10 +2872,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2689,26 +2882,23 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="33.85546875"/>
+    <col min="3" max="3" width="46"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2722,8 +2912,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2733,38 +2923,38 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2774,66 +2964,66 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2844,10 +3034,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2855,26 +3044,23 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="44.28515625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2888,8 +3074,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2899,101 +3085,101 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3004,10 +3190,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3015,26 +3200,23 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="44.28515625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3048,8 +3230,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3059,101 +3241,101 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3164,10 +3346,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3175,26 +3356,23 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="44.28515625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3208,8 +3386,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3219,101 +3397,101 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3324,10 +3502,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3335,26 +3512,23 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="25.7109375"/>
+    <col min="3" max="3" width="35.7109375"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3368,8 +3542,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3379,38 +3553,38 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3420,66 +3594,66 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3490,10 +3664,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3501,26 +3674,23 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="25.7109375"/>
+    <col min="3" max="3" width="35.7109375"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3534,8 +3704,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3545,38 +3715,38 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3586,66 +3756,66 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3656,10 +3826,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3667,26 +3836,23 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="25.7109375"/>
+    <col min="3" max="3" width="37.5703125"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3700,8 +3866,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3711,38 +3877,38 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3752,66 +3918,66 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3822,10 +3988,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3833,26 +3998,23 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="25.7109375"/>
+    <col min="3" max="3" width="37.5703125"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3866,8 +4028,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3877,38 +4039,38 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3918,66 +4080,66 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3988,10 +4150,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3999,26 +4160,23 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="27.5703125"/>
+    <col min="3" max="3" width="34"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4032,8 +4190,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4043,38 +4201,38 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4084,66 +4242,66 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -4154,10 +4312,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4165,26 +4322,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="27.5703125"/>
+    <col min="3" max="3" width="34"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4198,8 +4352,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4209,44 +4363,44 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4256,66 +4410,65 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4323,26 +4476,23 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="27.5703125"/>
+    <col min="3" max="3" width="34"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4356,8 +4506,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4367,38 +4517,38 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4408,66 +4558,66 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -4478,10 +4628,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4489,26 +4638,23 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="27.5703125"/>
+    <col min="3" max="3" width="38.85546875"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4522,8 +4668,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4533,38 +4679,38 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4574,66 +4720,66 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -4644,10 +4790,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4655,26 +4800,23 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="27.5703125"/>
+    <col min="3" max="3" width="39.42578125"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4688,8 +4830,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4699,38 +4841,38 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4740,66 +4882,66 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -4810,10 +4952,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4821,26 +4962,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="25.7109375"/>
+    <col min="3" max="3" width="34"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4854,8 +4992,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4865,44 +5003,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4912,66 +5050,65 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4979,26 +5116,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="27.5703125"/>
+    <col min="3" max="3" width="34"/>
+    <col min="4" max="4" width="32"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5012,8 +5146,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5023,44 +5157,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5070,66 +5204,65 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5137,26 +5270,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="44.28515625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5170,8 +5300,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5181,44 +5311,44 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5228,66 +5358,65 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5295,26 +5424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="44.28515625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5328,8 +5454,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5339,44 +5465,44 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5386,66 +5512,65 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5453,26 +5578,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="44.28515625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5486,8 +5608,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5497,44 +5619,44 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5544,66 +5666,65 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5611,26 +5732,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="15.7109375"/>
+    <col min="2" max="2" width="34.42578125"/>
+    <col min="3" max="3" width="44.28515625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5644,8 +5762,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5655,107 +5773,106 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{7779048B-D524-4A14-A506-29E74AF04523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371053CB-83B3-4781-BA43-0635BED1FBE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" firstSheet="11" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,6 @@
     <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="140">
   <si>
     <t>SOURCE</t>
   </si>
@@ -474,6 +473,9 @@
   </si>
   <si>
     <t>Super REG</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1405,149 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375"/>
+    <col min="3" max="3" width="30.85546875"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="1025" width="8.28515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1437,10 +1578,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1454,7 +1595,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1506,21 +1647,28 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>66</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1533,12 +1681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D12"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1569,10 +1717,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1586,7 +1734,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1638,21 +1786,28 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>66</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1665,12 +1820,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D12"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1701,10 +1856,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1718,7 +1873,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1770,153 +1925,28 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125"/>
-    <col min="2" max="2" width="20.7109375"/>
-    <col min="3" max="3" width="30.85546875"/>
-    <col min="4" max="4" width="11.5703125"/>
-    <col min="5" max="1025" width="8.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1931,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2052,27 +2082,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2087,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2208,27 +2245,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2243,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2370,27 +2414,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2405,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2532,27 +2583,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2721,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2848,27 +2906,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2883,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3010,27 +3075,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3045,10 +3117,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3166,27 +3238,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>106</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3201,10 +3280,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3322,27 +3401,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>106</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3357,10 +3443,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3478,27 +3564,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>112</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3513,10 +3606,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3640,27 +3733,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3675,10 +3775,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3802,27 +3902,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3837,10 +3944,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3964,27 +4071,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3999,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4126,27 +4240,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4161,10 +4282,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4288,27 +4409,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4477,10 +4605,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4604,27 +4732,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4639,10 +4774,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4766,27 +4901,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4801,10 +4943,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4928,27 +5070,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="139">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -146,9 +146,6 @@
     <t xml:space="preserve">KPIs_2018/KPIConversion2018.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">POS2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pos 2018 - MT - Hypermarket</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
   </si>
   <si>
     <t xml:space="preserve">FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - FT - REG</t>
@@ -720,16 +714,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,11 +853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -888,11 +878,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,10 +904,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,7 +962,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,11 +1030,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,10 +1056,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,7 +1114,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,7 +1128,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,18 +1174,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,10 +1208,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,10 +1222,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,30 +1277,24 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1326,7 +1311,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
@@ -1334,10 +1319,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,10 +1345,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,10 +1359,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,7 +1383,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,30 +1414,24 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1468,7 +1448,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
@@ -1476,10 +1456,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,10 +1482,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,10 +1496,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,7 +1520,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,30 +1551,24 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1610,18 +1585,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,10 +1619,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,7 +1657,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,30 +1688,24 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1752,18 +1722,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,10 +1756,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,10 +1770,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,13 +1802,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,13 +1816,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,34 +1843,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1918,18 +1882,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,10 +1916,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,10 +1930,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,13 +1962,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,13 +1976,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,34 +2003,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2084,18 +2042,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,10 +2076,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,10 +2090,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,10 +2101,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,10 +2117,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,13 +2128,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,13 +2142,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,34 +2169,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2256,18 +2208,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,10 +2242,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,10 +2256,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,10 +2267,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,10 +2283,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,13 +2294,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,13 +2308,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,34 +2335,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2436,11 +2382,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,10 +2408,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,7 +2425,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,10 +2455,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,7 +2472,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,7 +2486,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,18 +2532,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,10 +2566,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,10 +2580,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,10 +2591,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,10 +2607,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,13 +2618,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,13 +2632,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,34 +2659,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2758,18 +2698,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,10 +2732,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,10 +2746,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,10 +2757,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,10 +2773,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2843,13 +2784,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,13 +2798,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,34 +2825,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2930,19 +2864,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,10 +2898,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,10 +2912,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,10 +2923,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,13 +2944,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,13 +2958,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,34 +2985,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3097,19 +3024,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,10 +3058,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,10 +3072,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,10 +3083,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,13 +3104,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,13 +3118,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,34 +3145,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3264,19 +3184,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3298,10 +3218,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,10 +3232,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,10 +3243,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,13 +3264,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,13 +3278,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,34 +3305,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3431,19 +3344,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,10 +3378,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,10 +3392,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,10 +3403,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,10 +3419,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,13 +3430,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,13 +3444,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,34 +3471,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3604,19 +3510,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,10 +3544,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,10 +3558,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,10 +3569,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,10 +3585,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,13 +3596,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,13 +3610,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,34 +3637,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3777,19 +3676,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,10 +3710,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,10 +3724,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3836,10 +3735,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,10 +3751,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,13 +3762,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,13 +3776,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,34 +3803,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3950,19 +3842,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,10 +3876,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,10 +3890,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,10 +3901,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,10 +3917,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,13 +3928,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,13 +3942,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,34 +3969,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4123,19 +4008,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,10 +4042,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,10 +4056,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,10 +4067,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,10 +4083,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,13 +4094,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,13 +4108,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,34 +4135,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4304,11 +4182,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,10 +4208,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,7 +4225,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,10 +4255,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,7 +4272,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4286,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,19 +4332,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4488,10 +4366,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,10 +4380,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4513,10 +4391,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,10 +4407,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,13 +4418,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4554,13 +4432,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,34 +4459,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4627,19 +4498,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,10 +4532,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,10 +4546,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,10 +4557,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,10 +4573,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,13 +4584,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,13 +4598,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,34 +4625,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4800,19 +4664,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,10 +4698,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,10 +4712,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,10 +4723,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,10 +4739,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,13 +4750,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,13 +4764,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,34 +4791,27 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>86</v>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4981,11 +4838,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,10 +4864,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +4881,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,10 +4911,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,7 +4928,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,7 +4942,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,11 +4996,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,10 +5022,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,7 +5039,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5212,10 +5069,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,7 +5086,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5243,7 +5100,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,11 +5154,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,10 +5180,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,7 +5197,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5370,10 +5227,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,7 +5244,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5401,7 +5258,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,11 +5312,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5481,10 +5338,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,7 +5355,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,10 +5385,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,7 +5402,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,7 +5416,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,11 +5470,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5639,10 +5496,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,7 +5513,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,10 +5543,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5703,7 +5560,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,7 +5574,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,11 +5628,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,10 +5654,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5855,7 +5712,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,7 +5726,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -25,10 +25,10 @@
     <sheet name="PoS 2019 - FT NS - REG" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="PoS 2019 - IC Canteen - EDU" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="PoS 2019 - IC Canteen - OTH" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="PoS 2019 - IC HoReCa BarTavernC" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Recovered_Sheet1" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="PoS 2019 - IC HoReCa RestCafeTe" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Recovered_Sheet2" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - CAP" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - REG" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - CAP" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - REG" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="PoS 2019 - IC QSR" sheetId="24" state="visible" r:id="rId25"/>
@@ -719,11 +719,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,11 +877,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,11 +1028,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,11 +1179,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,11 +1316,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,11 +1453,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,11 +1590,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,11 +1727,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,11 +1887,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,16 +2042,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,16 +2208,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,11 +2379,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,16 +2531,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,16 +2697,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,11 +2868,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,11 +3027,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,11 +3186,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,11 +3345,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,11 +3510,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,11 +3675,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3850,11 +3840,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,11 +4005,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,11 +4170,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4340,11 +4327,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,11 +4492,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,11 +4657,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4838,11 +4822,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,11 +4979,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,11 +5136,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,11 +5293,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5470,11 +5450,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,11 +5607,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="11" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -25,21 +25,26 @@
     <sheet name="PoS 2019 - FT NS - REG" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="PoS 2019 - IC Canteen - EDU" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="PoS 2019 - IC Canteen - OTH" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - CAP" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - REG" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - CAP" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - REG" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="PoS 2019 - IC QSR" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="PoS 2019 - MT Conv Big - REG" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="PoS 2019 - MT Conv Small - CAP" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="PoS 2019 - MT Hypermarket - CAP" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="PoS 2019 - MT Hypermarket - REG" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - CAP" sheetId="19" state="hidden" r:id="rId20"/>
+    <sheet name="PoS 2019 - IC HoReCa BarTavernClub - REG" sheetId="20" state="hidden" r:id="rId21"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - CAP" sheetId="22" state="hidden" r:id="rId23"/>
+    <sheet name="PoS 2019 - IC HoReCa RestCafeTea - REG" sheetId="23" state="hidden" r:id="rId24"/>
+    <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="PoS 2019 - IC QSR" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="PoS 2019 - IC FastFood" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="PoS 2019 - IC Cinema - CAP" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="PoS 2019 - IC Cinema - REG" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="PoS 2019 - MT Conv Big - REG" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="PoS 2019 - MT Conv Small - CAP" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="PoS 2019 - MT Conv Small - REG" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="PoS 2019 - MT Hypermarket - CAP" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="PoS 2019 - MT Hypermarket - REG" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="PoS 2019 - MT Supermarket - CAP" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="PoS 2019 - MT Supermarket - REG" sheetId="37" state="visible" r:id="rId38"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="150">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -317,6 +322,24 @@
     <t xml:space="preserve">Canteen OTH</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - HoReCa All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoReCa</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - CAP</t>
   </si>
   <si>
@@ -326,15 +349,6 @@
     <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern CAP</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC - HoReCa All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoReCa</t>
-  </si>
-  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavernClub - REG</t>
   </si>
   <si>
@@ -344,6 +358,12 @@
     <t xml:space="preserve">PoS 2019 ICHoReCa BarTavern REG</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC HoReCa RestCafeTea - CAP</t>
   </si>
   <si>
@@ -386,10 +406,28 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC QSR.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">IC - QSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR</t>
+    <t xml:space="preserve">IC - QSR-FastFood-Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR-FastFood-Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC FastFood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC FastFood.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Cinema - CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Cinema - CAP.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoS 2019 - IC Cinema - REG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Cinema – REG.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Big - CAP</t>
@@ -719,10 +757,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,10 +916,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,10 +1068,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,17 +1214,17 @@
   </sheetPr>
   <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,11 +1357,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,11 +1494,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,11 +1631,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,11 +1768,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,11 +1928,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,16 +2083,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,21 +2244,22 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF333333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,10 +2421,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,6 +2569,7 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF333333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
@@ -2536,11 +2580,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,17 +2740,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,7 +2789,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,20 +2902,22 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF333333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,10 +2939,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,8 +2955,8 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
+      <c r="D3" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,6 +2979,12 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2945,7 +2997,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,7 +3011,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,7 +3041,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,20 +3069,22 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF333333"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,10 +3106,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,7 +3122,7 @@
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3092,6 +3146,12 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3104,7 +3164,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,7 +3178,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,7 +3208,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,10 +3246,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,10 +3272,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,7 +3289,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,7 +3324,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3338,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,7 +3368,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,10 +3406,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,10 +3432,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3449,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,12 +3472,6 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3428,7 +3484,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,7 +3498,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +3528,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,15 +3561,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,10 +3592,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +3609,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,12 +3632,6 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3596,7 +3647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -3637,7 +3688,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,15 +3721,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3700,10 +3752,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,7 +3769,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,12 +3792,6 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3761,7 +3807,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -3802,7 +3848,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,16 +3880,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,10 +3912,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,7 +3929,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,12 +3952,6 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3926,7 +3967,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -3967,7 +4008,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,15 +4041,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,13 +4072,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4047,7 +4089,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,12 +4112,6 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -4088,10 +4124,10 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
@@ -4102,7 +4138,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,7 +4168,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,10 +4206,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,10 +4364,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,10 +4390,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,7 +4407,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4393,10 +4431,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,7 +4448,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,7 +4462,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4492,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,10 +4530,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,10 +4556,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +4573,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,10 +4597,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,7 +4614,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4589,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,7 +4658,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,10 +4696,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,10 +4722,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4699,7 +4739,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4723,10 +4763,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4740,7 +4780,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,7 +4794,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,7 +4824,837 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,10 +5692,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,10 +5850,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,10 +6008,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,10 +6166,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,10 +6324,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,10 +6482,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="11" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="149">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -328,13 +328,10 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">PoS 2019 - IC HoReCa BarTavern</t>
-  </si>
-  <si>
     <t xml:space="preserve">KPIs_2019/Spirits 2018 - IC - HoReCa.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">IC - HoReCa All</t>
+    <t xml:space="preserve">IC - HoReCa ALL</t>
   </si>
   <si>
     <t xml:space="preserve">HoReCa</t>
@@ -757,11 +754,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,11 +913,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,11 +1065,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,11 +1217,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,11 +1353,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,11 +1489,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,11 +1625,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,11 +1761,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,11 +1920,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,17 +2073,16 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,7 +2121,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,7 +2148,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,7 +2162,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,7 +2176,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,7 +2206,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,11 +2245,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,10 +2270,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,7 +2287,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,7 +2314,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,7 +2328,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2342,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,7 +2372,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,11 +2410,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,11 +2569,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,10 +2594,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,7 +2611,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,7 +2638,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,7 +2652,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,7 +2666,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,7 +2696,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,11 +2734,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,10 +2759,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,7 +2776,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,7 +2803,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +2817,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,7 +2831,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,7 +2861,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,11 +2900,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,10 +2925,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,7 +2942,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,7 +2969,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,7 +2983,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,7 +2997,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,7 +3027,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,11 +3066,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,10 +3091,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,7 +3108,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +3135,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,7 +3149,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,7 +3163,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,7 +3193,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,11 +3231,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,10 +3257,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,7 +3274,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,7 +3309,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3338,7 +3323,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,7 +3353,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,11 +3391,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,10 +3417,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,7 +3434,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,7 +3469,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,7 +3483,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +3513,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,11 +3551,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,10 +3577,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3594,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,7 +3629,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,7 +3643,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,7 +3673,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,11 +3711,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,10 +3737,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,7 +3754,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,7 +3789,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,7 +3803,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,7 +3833,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,17 +3865,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,10 +3897,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,7 +3914,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,7 +3949,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,7 +3963,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,7 +3993,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,11 +4031,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,10 +4057,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,7 +4074,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,7 +4109,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,7 +4123,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,7 +4153,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,11 +4191,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,11 +4349,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,10 +4375,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,7 +4392,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,7 +4419,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,7 +4433,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,7 +4447,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +4477,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,11 +4515,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,10 +4541,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,7 +4558,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,7 +4585,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,7 +4599,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4613,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4643,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,11 +4681,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,10 +4707,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,7 +4724,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,7 +4751,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,7 +4765,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4794,7 +4779,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,7 +4809,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,11 +4847,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,10 +4873,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +4890,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,7 +4917,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4946,7 +4931,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +4945,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,7 +4975,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,11 +5013,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,10 +5039,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,7 +5056,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,7 +5083,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5097,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,7 +5111,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,7 +5141,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,11 +5179,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,10 +5205,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,7 +5222,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,7 +5249,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,7 +5263,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5292,7 +5277,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5322,7 +5307,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,11 +5345,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5386,10 +5371,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,7 +5388,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,7 +5415,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5444,7 +5429,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,7 +5443,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5473,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,11 +5511,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,10 +5537,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5569,7 +5554,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,7 +5581,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,7 +5595,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,7 +5609,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,7 +5639,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,11 +5677,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,11 +5835,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,11 +5993,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6166,11 +6151,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6324,11 +6309,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6482,11 +6467,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="11" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="11" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">PoS 2019 - IC Cinema - REG</t>
   </si>
   <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Cinema – REG.xlsx</t>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - MT Conv Big - CAP</t>
@@ -754,11 +754,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,11 +913,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,11 +1065,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,10 +1217,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,10 +1354,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,10 +1491,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,10 +1628,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,10 +1765,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,10 +1925,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,16 +2079,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,10 +2252,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,11 +2418,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,10 +2577,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,15 +2738,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,10 +2910,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,10 +3077,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,11 +3243,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,11 +3403,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,11 +3563,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,11 +3723,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,11 +3883,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,17 +4037,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,11 +4203,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,11 +4361,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,11 +4527,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4681,11 +4693,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,11 +4859,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,11 +5025,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,11 +5191,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,11 +5357,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,11 +5523,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,11 +5689,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5835,11 +5847,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,11 +6005,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6151,11 +6163,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,11 +6321,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6467,11 +6479,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="11" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -33,8 +33,8 @@
     <sheet name="PoS 2019 - IC HoReCa RestCafeTea - REG" sheetId="23" state="hidden" r:id="rId24"/>
     <sheet name="PoS 2019 - IC Petroleum - CAP" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="PoS 2019 - IC Petroleum - REG" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="PoS 2019 - IC QSR" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="PoS 2019 - IC FastFood" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="PoS 2019 - IC FastFood" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="PoS 2019 - IC QSR" sheetId="27" state="visible" r:id="rId28"/>
     <sheet name="PoS 2019 - IC Cinema - CAP" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="PoS 2019 - IC Cinema - REG" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="PoS 2019 - MT Conv Big - CAP" sheetId="30" state="visible" r:id="rId31"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="151">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -397,22 +397,28 @@
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">PoS 2019 - IC FastFood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC FastFood.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - FastFood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastFood</t>
+  </si>
+  <si>
     <t xml:space="preserve">PoS 2019 - IC QSR</t>
   </si>
   <si>
     <t xml:space="preserve">KPIs_2019/PoS 2019 - IC QSR.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">IC - QSR-FastFood-Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSR-FastFood-Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoS 2019 - IC FastFood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPIs_2019/PoS 2019 - IC FastFood.xlsx</t>
+    <t xml:space="preserve">IC - QSR-Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSR-Cinema</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - IC Cinema - CAP</t>
@@ -754,11 +760,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,11 +919,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,11 +1071,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,11 +1223,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,11 +1359,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,11 +1495,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,11 +1631,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,11 +1767,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,11 +1926,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,11 +2085,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,11 +2251,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,11 +2416,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,11 +2575,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,11 +2740,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,11 +2906,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,11 +3072,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,11 +3237,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,11 +3397,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,16 +3552,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,7 +3624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -3674,7 +3668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>63</v>
       </c>
@@ -3723,11 +3717,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,7 +3784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -3801,7 +3795,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,7 +3809,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,7 +3828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>63</v>
       </c>
@@ -3845,7 +3839,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,16 +3872,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,10 +3903,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,7 +3920,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,7 +3944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -3961,7 +3955,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,7 +3969,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3994,7 +3988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>63</v>
       </c>
@@ -4005,7 +3999,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,16 +4032,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,10 +4063,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,7 +4080,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4121,7 +4115,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,7 +4129,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,7 +4148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>63</v>
       </c>
@@ -4165,7 +4159,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,11 +4197,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,11 +4355,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,10 +4381,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4404,7 +4398,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,7 +4425,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,7 +4439,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,7 +4453,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,7 +4483,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,11 +4521,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,10 +4547,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,7 +4564,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4597,7 +4591,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,7 +4605,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,7 +4619,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,7 +4649,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,11 +4687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4719,10 +4713,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,7 +4730,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,7 +4757,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,7 +4771,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4791,7 +4785,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,7 +4815,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,11 +4853,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,10 +4879,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,7 +4896,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,7 +4923,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,7 +4937,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,7 +4951,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,7 +4981,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5025,11 +5019,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,10 +5045,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,7 +5062,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,7 +5089,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,7 +5103,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5123,7 +5117,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,7 +5147,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,11 +5185,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,10 +5211,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,7 +5228,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,7 +5255,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,7 +5269,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,7 +5283,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5319,7 +5313,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,11 +5351,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5383,10 +5377,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5394,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,7 +5421,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,7 +5435,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,7 +5449,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,7 +5479,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,11 +5517,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,10 +5543,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5566,7 +5560,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,7 +5587,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,7 +5601,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5621,7 +5615,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,7 +5645,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5689,11 +5683,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5847,11 +5841,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,11 +5999,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,11 +6157,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,11 +6315,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6479,11 +6473,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="152">
   <si>
     <t xml:space="preserve">SOURCE</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPIs_2018/QSR PoS 2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR TARGET</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2019 - FT - CAP</t>
@@ -515,8 +518,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -548,7 +552,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,6 +587,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -638,7 +648,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -663,7 +673,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,6 +690,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,7 +722,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -760,11 +782,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,11 +940,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,11 +1091,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,21 +1234,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,19 +1263,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1262,23 +1289,26 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1286,47 +1316,52 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,7 +1369,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1351,21 +1385,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,19 +1413,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1398,23 +1439,23 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1422,20 +1463,21 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1443,27 +1485,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="D11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -1487,21 +1531,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,19 +1559,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1534,23 +1585,23 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1558,20 +1609,21 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
@@ -1579,32 +1631,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1623,21 +1678,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,19 +1707,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1670,23 +1733,26 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -1694,47 +1760,52 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>74</v>
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1813,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1759,21 +1829,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,19 +1858,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1806,92 +1884,102 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -1899,7 +1987,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1918,21 +2006,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1945,19 +2035,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>76.81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1965,92 +2061,103 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -2058,8 +2165,9 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2077,21 +2185,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,19 +2214,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>77.73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2124,29 +2240,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -2154,68 +2273,75 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -2223,7 +2349,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2251,10 +2377,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,10 +2417,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>95</v>
+        <v>62</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,10 +2428,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,7 +2447,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,13 +2455,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,13 +2469,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,16 +2496,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>92</v>
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,7 +2516,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2416,11 +2543,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,10 +2701,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,10 +2727,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,10 +2741,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>62</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,10 +2752,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,7 +2771,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,13 +2779,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,13 +2793,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,16 +2820,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>92</v>
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,7 +2840,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2732,21 +2859,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2759,19 +2888,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>75.66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -2779,29 +2914,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -2809,68 +2947,75 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -2878,7 +3023,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2906,10 +3051,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,10 +3077,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,10 +3091,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>103</v>
+        <v>62</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,10 +3102,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,7 +3121,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,13 +3129,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,13 +3143,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,16 +3170,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>92</v>
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,7 +3190,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3072,10 +3218,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,10 +3244,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,10 +3258,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>106</v>
+        <v>62</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,10 +3269,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3288,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,13 +3296,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,13 +3310,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,16 +3337,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>92</v>
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,7 +3357,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3229,22 +3376,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3257,19 +3404,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3277,92 +3430,102 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -3370,7 +3533,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3389,22 +3552,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3417,19 +3580,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3437,92 +3606,102 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -3530,7 +3709,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3549,22 +3728,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3577,19 +3756,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3597,45 +3782,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,46 +3835,49 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -3690,7 +3885,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3709,22 +3904,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3737,19 +3932,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>78.99</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3757,92 +3958,100 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -3850,7 +4059,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3869,22 +4078,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3897,19 +4106,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>84.11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -3917,45 +4132,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,46 +4185,50 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4010,8 +4236,9 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4029,22 +4256,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4057,16 +4284,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>83.34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,45 +4310,52 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,46 +4363,49 @@
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4170,7 +4413,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4197,11 +4440,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,22 +4589,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4375,19 +4617,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>70.71</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4395,29 +4643,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4425,68 +4676,77 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4494,7 +4754,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4513,22 +4773,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4541,19 +4801,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4561,29 +4827,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4591,68 +4860,77 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4660,7 +4938,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4679,22 +4957,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4707,19 +4985,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4727,29 +5011,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4757,68 +5044,77 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4826,7 +5122,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4845,22 +5141,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4873,19 +5169,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>69.52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -4893,29 +5195,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -4923,68 +5228,77 @@
         <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -4992,7 +5306,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5011,22 +5325,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5039,19 +5353,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>65.15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5059,29 +5379,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5089,68 +5412,77 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -5158,7 +5490,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5177,22 +5509,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5205,19 +5537,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>67.43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5225,29 +5563,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5255,68 +5596,77 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -5324,7 +5674,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5343,22 +5693,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.77551020408163"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5371,19 +5721,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>66.35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5391,29 +5747,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5421,68 +5780,77 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -5490,7 +5858,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5509,22 +5877,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5537,19 +5905,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -5557,29 +5931,32 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -5587,68 +5964,78 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="8" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
@@ -5656,8 +6043,9 @@
         <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5683,11 +6071,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5841,11 +6228,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,11 +6385,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6157,11 +6542,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,11 +6699,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6473,11 +6856,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="35"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - FT" sheetId="1" state="hidden" r:id="rId2"/>
@@ -522,12 +522,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="177"/>
     </font>
     <font>
       <sz val="10"/>
@@ -546,6 +547,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -657,19 +664,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,15 +692,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,16 +783,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,16 +942,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,16 +1094,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,18 +1246,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,7 +1277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1288,7 @@
         <v>61</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65</v>
+        <v>69.93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,17 +1397,17 @@
   </sheetPr>
   <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,7 +1427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65</v>
+        <v>69.26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,17 +1543,17 @@
   </sheetPr>
   <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1584,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65</v>
+        <v>70.17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,18 +1690,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,7 +1721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1732,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65</v>
+        <v>69.78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,18 +1841,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>78.7</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,18 +2018,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,7 +2049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2060,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>76.81</v>
+        <v>78.94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,18 +2197,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,7 +2228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2239,7 @@
         <v>90</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>77.73</v>
+        <v>79.91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,17 +2381,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,16 +2547,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,17 +2706,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,18 +2872,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,7 +2903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -2903,7 +2914,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>75.66</v>
+        <v>78.29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,17 +3056,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,17 +3223,17 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,17 +3389,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3419,7 +3431,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>63.36</v>
+        <v>69.19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,17 +3566,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,7 +3597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3595,7 +3608,7 @@
         <v>113</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>63.36</v>
+        <v>68.14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3730,17 +3743,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,7 +3774,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3771,7 +3785,7 @@
         <v>115</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>80.33</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,17 +3920,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,7 +3951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -3947,7 +3962,7 @@
         <v>119</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>78.99</v>
+        <v>80.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,17 +4095,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4126,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4121,7 +4137,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>84.11</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,17 +4274,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,7 +4305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4299,7 +4316,7 @@
         <v>125</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>83.34</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,16 +4451,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,17 +4609,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,7 +4640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4632,7 +4651,7 @@
         <v>127</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>70.71</v>
+        <v>72.33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4699,7 @@
       </c>
       <c r="E6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4694,7 +4713,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,7 +4740,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4729,7 +4748,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4775,17 +4794,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,7 +4825,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -4816,7 +4836,7 @@
         <v>132</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>73.8</v>
+        <v>75.76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4884,7 @@
       </c>
       <c r="E6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -4878,7 +4898,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +4925,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -4913,7 +4933,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,17 +4979,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,7 +5010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5000,7 +5021,7 @@
         <v>135</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>70.7</v>
+        <v>72.38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,7 +5083,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,7 +5110,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5097,7 +5118,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,17 +5164,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,7 +5195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5184,7 +5206,7 @@
         <v>137</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>69.52</v>
+        <v>71.41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5268,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,7 +5295,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5281,7 +5303,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,17 +5349,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,7 +5380,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5368,7 +5391,7 @@
         <v>139</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>65.15</v>
+        <v>66.47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,7 +5453,7 @@
         <v>141</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,7 +5480,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5465,7 +5488,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,17 +5534,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5552,7 +5576,7 @@
         <v>144</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>67.43</v>
+        <v>69.18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,7 +5638,7 @@
         <v>141</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,7 +5665,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5649,7 +5673,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,17 +5719,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,7 +5750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5736,7 +5761,7 @@
         <v>146</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>66.35</v>
+        <v>68.73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5798,7 +5823,7 @@
         <v>141</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,7 +5850,7 @@
       </c>
       <c r="E9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -5833,7 +5858,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,17 +5904,18 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,7 +5935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -5920,7 +5946,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>68.22</v>
+        <v>69.98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5982,7 +6008,7 @@
         <v>141</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,7 +6035,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -6017,7 +6043,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,16 +6091,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6222,16 +6249,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,16 +6407,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6536,16 +6565,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,16 +6723,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6850,16 +6881,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="1" state="visible" r:id="rId2"/>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">FT S</t>
   </si>
   <si>
-    <t xml:space="preserve">Conv BIG CAP-NKA</t>
+    <t xml:space="preserve">Conv Big CAP-NKA</t>
   </si>
   <si>
     <t xml:space="preserve">Conv Small</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">Super</t>
   </si>
   <si>
-    <t xml:space="preserve">Conv BIG REG</t>
+    <t xml:space="preserve">Conv Big REG</t>
   </si>
   <si>
     <t xml:space="preserve">IC BarNight-CoffeeShop</t>
@@ -937,7 +937,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
@@ -945,13 +945,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,12 +2428,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,12 +3020,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,12 +3560,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,20 +4248,20 @@
   </sheetPr>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5312,12 +5312,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,12 +6246,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7180,12 +7180,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7992,12 +7992,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8803,12 +8803,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9861,12 +9861,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPI_Source.xlsx
+++ b/Projects/CCRU/Data/KPI_Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="234">
   <si>
     <t xml:space="preserve">POS</t>
   </si>
@@ -632,6 +632,12 @@
     <t xml:space="preserve">KPIs_2019/Target Execution 2019.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">Target Execution 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2020/Target Execution 2020.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Equipment Execution 2019</t>
   </si>
   <si>
@@ -659,6 +665,24 @@
     <t xml:space="preserve">MT - Hyper-Super</t>
   </si>
   <si>
+    <t xml:space="preserve">Equipment Execution 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPIs_2020/Contract Execution 2020.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - BarNight-CoffeeShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - RestCafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC - QSR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Top SKU</t>
   </si>
   <si>
@@ -668,7 +692,13 @@
     <t xml:space="preserve">KPIs_2019/KPIConversion2019.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">KPIs_2020/KPIConversion2020.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contract Execution 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract Execution 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Spirits 2018 - FT</t>
@@ -817,7 +847,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -851,6 +881,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,7 +950,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -938,20 +972,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,6 +2450,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF999999"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E78"/>
@@ -2428,12 +2463,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2469,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2480,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2491,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2502,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2513,7 +2548,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2524,7 +2559,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2535,7 +2570,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2546,7 +2581,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2557,7 +2592,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2568,7 +2603,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2579,7 +2614,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2590,7 +2625,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2601,7 +2636,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2612,7 +2647,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2623,7 +2658,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2634,7 +2669,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2645,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2656,7 +2691,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2667,7 +2702,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2678,7 +2713,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2689,7 +2724,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2700,7 +2735,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2711,7 +2746,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2722,7 +2757,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2733,7 +2768,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3008,6 +3043,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF999999"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E78"/>
@@ -3015,17 +3051,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C67" activeCellId="0" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,12 +3596,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4284,7 @@
   </sheetPr>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
@@ -4256,12 +4292,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5307,17 +5343,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,565 +5695,565 @@
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>199</v>
+      <c r="B78" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6241,17 +6277,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,13 +6348,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -6327,13 +6363,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -6342,13 +6378,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -6357,13 +6393,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -6372,13 +6408,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -6387,13 +6423,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -6402,13 +6438,13 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -6417,13 +6453,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -6432,13 +6468,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -6447,13 +6483,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -6462,13 +6498,13 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -6477,13 +6513,13 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -6492,13 +6528,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -6507,13 +6543,13 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -6522,13 +6558,13 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -6537,13 +6573,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -6552,13 +6588,13 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -6567,13 +6603,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -6582,13 +6618,13 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -6597,13 +6633,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -6612,13 +6648,13 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -6627,13 +6663,13 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -6727,354 +6763,354 @@
       </c>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>203</v>
+      <c r="B65" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>203</v>
+      <c r="B66" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>203</v>
+      <c r="B67" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,19 +7209,19 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7210,7 +7246,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -7221,7 +7257,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -7232,7 +7268,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7243,7 +7279,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7254,7 +7290,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -7265,7 +7301,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -7276,7 +7312,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -7287,7 +7323,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -7298,7 +7334,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -7309,7 +7345,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -7320,7 +7356,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -7331,7 +7367,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -7342,7 +7378,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -7353,7 +7389,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -7364,7 +7400,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -7375,7 +7411,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -7386,7 +7422,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -7397,7 +7433,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -7408,7 +7444,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -7421,7 +7457,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -7434,7 +7470,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -7447,7 +7483,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -7460,7 +7496,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -7473,7 +7509,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -7486,7 +7522,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -7499,7 +7535,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -7512,7 +7548,7 @@
         <v>58</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E28" s="0"/>
     </row>
@@ -7521,7 +7557,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E29" s="0"/>
     </row>
@@ -7530,7 +7566,7 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E30" s="0"/>
     </row>
@@ -7539,7 +7575,7 @@
         <v>66</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E31" s="0"/>
     </row>
@@ -7548,7 +7584,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E32" s="0"/>
     </row>
@@ -7557,7 +7593,7 @@
         <v>70</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E33" s="0"/>
     </row>
@@ -7566,7 +7602,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E34" s="0"/>
     </row>
@@ -7575,7 +7611,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E35" s="0"/>
     </row>
@@ -7584,7 +7620,7 @@
         <v>76</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E36" s="0"/>
     </row>
@@ -7593,7 +7629,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E37" s="0"/>
     </row>
@@ -7602,7 +7638,7 @@
         <v>80</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E38" s="0"/>
     </row>
@@ -7611,7 +7647,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E39" s="0"/>
     </row>
@@ -7620,7 +7656,7 @@
         <v>84</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E40" s="0"/>
     </row>
@@ -7629,7 +7665,7 @@
         <v>86</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E41" s="0"/>
     </row>
@@ -7638,7 +7674,7 @@
         <v>88</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E42" s="0"/>
     </row>
@@ -7647,7 +7683,7 @@
         <v>90</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>95</v>
@@ -7658,7 +7694,7 @@
         <v>93</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>95</v>
@@ -7669,7 +7705,7 @@
         <v>95</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>95</v>
@@ -7680,7 +7716,7 @@
         <v>97</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>95</v>
@@ -7691,7 +7727,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>95</v>
@@ -7702,7 +7738,7 @@
         <v>101</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>95</v>
@@ -7713,7 +7749,7 @@
         <v>103</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>95</v>
@@ -7724,7 +7760,7 @@
         <v>105</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>95</v>
@@ -7735,7 +7771,7 @@
         <v>107</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>95</v>
@@ -7746,7 +7782,7 @@
         <v>109</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>95</v>
@@ -7757,7 +7793,7 @@
         <v>111</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>95</v>
@@ -7768,7 +7804,7 @@
         <v>113</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>95</v>
@@ -7779,7 +7815,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7787,7 +7823,7 @@
         <v>118</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7795,7 +7831,7 @@
         <v>120</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7803,7 +7839,7 @@
         <v>122</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7811,7 +7847,7 @@
         <v>124</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7819,7 +7855,7 @@
         <v>126</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7827,7 +7863,7 @@
         <v>128</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7835,7 +7871,7 @@
         <v>130</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,7 +7879,7 @@
         <v>132</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,7 +7887,7 @@
         <v>134</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7859,7 +7895,7 @@
         <v>136</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,7 +7903,7 @@
         <v>138</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7875,7 +7911,7 @@
         <v>140</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7883,7 +7919,7 @@
         <v>142</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7891,7 +7927,7 @@
         <v>144</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7899,7 +7935,7 @@
         <v>146</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7907,7 +7943,7 @@
         <v>148</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7915,7 +7951,7 @@
         <v>150</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,7 +7959,7 @@
         <v>152</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7931,7 +7967,7 @@
         <v>154</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,7 +7975,7 @@
         <v>156</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7947,7 +7983,7 @@
         <v>158</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7955,7 +7991,7 @@
         <v>160</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,7 +7999,7 @@
         <v>162</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7984,20 +8020,20 @@
   </sheetPr>
   <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8058,10 +8094,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -8071,10 +8107,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -8084,10 +8120,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -8097,10 +8133,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -8110,10 +8146,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -8123,10 +8159,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -8136,10 +8172,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -8149,10 +8185,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -8162,10 +8198,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -8175,10 +8211,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -8188,10 +8224,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -8201,10 +8237,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -8214,10 +8250,10 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -8227,10 +8263,10 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -8240,10 +8276,10 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -8253,10 +8289,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -8266,10 +8302,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -8279,10 +8315,10 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -8292,10 +8328,10 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -8305,10 +8341,10 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -8318,10 +8354,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -8331,10 +8367,10 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -8414,279 +8450,279 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>211</v>
+      <c r="B67" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8796,19 +8832,19 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8869,13 +8905,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>95</v>
@@ -8886,13 +8922,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>95</v>
@@ -8903,13 +8939,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>95</v>
@@ -8920,13 +8956,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>95</v>
@@ -8937,13 +8973,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>95</v>
@@ -8954,13 +8990,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>95</v>
@@ -8971,13 +9007,13 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -8986,13 +9022,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -9001,13 +9037,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>95</v>
@@ -9018,13 +9054,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -9033,13 +9069,13 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -9048,13 +9084,13 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>95</v>
@@ -9065,13 +9101,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>95</v>
@@ -9082,13 +9118,13 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -9097,13 +9133,13 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>95</v>
@@ -9114,13 +9150,13 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>95</v>
@@ -9131,13 +9167,13 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>95</v>
@@ -9148,13 +9184,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>95</v>
@@ -9165,13 +9201,13 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>95</v>
@@ -9182,13 +9218,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>95</v>
@@ -9199,13 +9235,13 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>95</v>
@@ -9216,13 +9252,13 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>95</v>
@@ -9333,426 +9369,426 @@
       <c r="B42" s="9"/>
       <c r="E42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>207</v>
+      <c r="D43" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>207</v>
+      <c r="D44" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>208</v>
+      <c r="D45" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>208</v>
+      <c r="D46" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>207</v>
+      <c r="D47" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>207</v>
+      <c r="D48" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>208</v>
+      <c r="D49" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>208</v>
+      <c r="D50" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>207</v>
+      <c r="D51" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>207</v>
+      <c r="D52" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>208</v>
+      <c r="D53" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>208</v>
+      <c r="D54" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>205</v>
+      <c r="D55" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>202</v>
+      <c r="D56" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>202</v>
+      <c r="D57" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>203</v>
+      <c r="D58" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>205</v>
+      <c r="D59" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>205</v>
+      <c r="D60" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>204</v>
+      <c r="D61" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="E61" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>206</v>
+      <c r="D62" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="E62" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>206</v>
+      <c r="D63" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="E63" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>206</v>
+      <c r="D64" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="E64" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>203</v>
+      <c r="D65" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="E65" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>203</v>
+      <c r="D66" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="E66" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>203</v>
+      <c r="D67" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="E67" s="5" t="n">
         <v>95</v>
@@ -9849,6 +9885,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF999999"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E65536"/>
@@ -9856,17 +9893,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9891,10 +9928,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -9904,10 +9941,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -9917,10 +9954,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -9930,10 +9967,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -9988,10 +10025,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -10001,10 +10038,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -10014,10 +10051,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -10027,10 +10064,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -10040,10 +10077,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -10053,10 +10090,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -10093,10 +10130,10 @@
         <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -10106,10 +10143,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -10119,10 +10156,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -10132,10 +10169,10 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -10145,10 +10182,10 @@
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -10158,10 +10195,10 @@
         <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -10171,10 +10208,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -10184,10 +10221,10 @@
         <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
